--- a/biology/Zoologie/Bipes_canaliculatus/Bipes_canaliculatus.xlsx
+++ b/biology/Zoologie/Bipes_canaliculatus/Bipes_canaliculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bipes canaliculatus est une espèce d'amphisbènes de la famille des Bipedidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipes canaliculatus est une espèce d'amphisbènes de la famille des Bipedidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans les États du Guerrero, du Morelos et du Michoacán[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans les États du Guerrero, du Morelos et du Michoacán.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 mai 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 mai 2014) :
 Bipes canaliculatus canaliculatus Bonnaterre, 1789
 Bipes canaliculatus multiannulatus Alvarez, 1966</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alvares, 1966 : Variacion y descipcion de una subespecie de Bipes canaliculatus (Reptilia: Squamata) de Michoacan, Mexico. Anales de la Escuela Nacional de Ciencias Biologicas Mexico, vol. 13, no 1-4, p. 145-152.
 Bonnaterre, 1789 : Tableau encyclopédique et méthodique des trois règnes de la nature, Erpétologie.</t>
